--- a/Documentatie/Planning + Taakverdeling & Logboek/Planning + Taakverdeling.xlsx
+++ b/Documentatie/Planning + Taakverdeling & Logboek/Planning + Taakverdeling.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="240" windowWidth="28380" windowHeight="12465"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>Jaartal : 2013</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Wie</t>
   </si>
   <si>
-    <t>Betaling</t>
-  </si>
-  <si>
     <t>Taakverdeling</t>
   </si>
   <si>
@@ -109,13 +106,28 @@
   </si>
   <si>
     <t>Planning</t>
+  </si>
+  <si>
+    <t>Wouter, Yme</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Danny (Wouter, Yme)</t>
+  </si>
+  <si>
+    <t>Yme (Wouter)</t>
+  </si>
+  <si>
+    <t>Wouter (Yme)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,7 +235,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -241,8 +253,40 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -250,38 +294,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Goed" xfId="1" builtinId="26"/>
@@ -300,7 +315,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Kantoor">
       <a:dk1>
@@ -374,6 +389,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -408,6 +424,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -583,59 +600,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="G46" sqref="G46:I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="12" t="s">
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="2"/>
       <c r="F5" s="9">
         <v>16</v>
@@ -668,17 +685,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="27"/>
+      <c r="H6" s="18"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -687,622 +704,685 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="27"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="19"/>
+      <c r="J7" s="13"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="27"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="27"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="27"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="3"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="19"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="O12" s="13"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="27"/>
+      <c r="H13" s="18"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="27"/>
+      <c r="H14" s="18"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="27"/>
+      <c r="H15" s="18"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="19"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="13"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="27"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="19"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="13"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="27"/>
+      <c r="H17" s="18"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="19"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="13"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="27"/>
+      <c r="H18" s="18"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="3"/>
       <c r="N18" s="4"/>
-      <c r="O18" s="19"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="O18" s="13"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="27"/>
+      <c r="H19" s="18"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="3"/>
       <c r="N19" s="4"/>
-      <c r="O19" s="19"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="O19" s="13"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="27"/>
+      <c r="H20" s="18"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="3"/>
       <c r="N20" s="4"/>
-      <c r="O20" s="19"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
+      <c r="O20" s="13"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="27"/>
+      <c r="H21" s="18"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="26"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="21" t="s">
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="17"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
       <c r="N22" s="4"/>
-      <c r="O22" s="19"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
+      <c r="O22" s="13"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="27"/>
+      <c r="H23" s="18"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C26" s="5"/>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="28"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="12"/>
+      <c r="H26" s="28"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="K26" s="12"/>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="K26" s="28"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
     </row>
-    <row r="35" spans="1:9">
-      <c r="B35" s="15" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="15" t="s">
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="B36" s="14" t="s">
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="14" t="s">
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="B37" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="B38" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="B39" s="14" t="s">
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="B40" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="B41" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="B42" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="B43" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="B44" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="B45" s="15" t="s">
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="B46" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="B47" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="B48" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-    </row>
-    <row r="49" spans="2:9">
-      <c r="B49" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-    </row>
-    <row r="50" spans="2:9">
-      <c r="B50" s="15" t="s">
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-    </row>
-    <row r="51" spans="2:9">
-      <c r="B51" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-    </row>
-    <row r="52" spans="2:9">
-      <c r="B52" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="79">
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
     <mergeCell ref="B52:E52"/>
     <mergeCell ref="G52:I52"/>
     <mergeCell ref="A1:E1"/>
@@ -1319,76 +1399,13 @@
     <mergeCell ref="B47:E47"/>
     <mergeCell ref="B48:E48"/>
     <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="I22:M22"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
   <conditionalFormatting sqref="H23">
     <cfRule type="colorScale" priority="24">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1398,9 +1415,9 @@
   <conditionalFormatting sqref="I23">
     <cfRule type="colorScale" priority="23">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1410,9 +1427,9 @@
   <conditionalFormatting sqref="J23">
     <cfRule type="colorScale" priority="22">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1422,9 +1439,9 @@
   <conditionalFormatting sqref="K23">
     <cfRule type="colorScale" priority="21">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1434,9 +1451,9 @@
   <conditionalFormatting sqref="L23">
     <cfRule type="colorScale" priority="20">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1446,9 +1463,9 @@
   <conditionalFormatting sqref="M23">
     <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1458,9 +1475,9 @@
   <conditionalFormatting sqref="N23">
     <cfRule type="colorScale" priority="18">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1470,9 +1487,9 @@
   <conditionalFormatting sqref="O23">
     <cfRule type="colorScale" priority="15">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1482,9 +1499,9 @@
   <conditionalFormatting sqref="K9:K12 A5:N6 A7:F8 H7:N7 A9:H9 A13:K13 L14 L15:M15 A16:L20 A15:J15 E14:J14 O5 E10:H12 A10:A12 J10:J12 A22:G23 A21:K21 N21:N23">
     <cfRule type="colorScale" priority="26">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1494,9 +1511,9 @@
   <conditionalFormatting sqref="I9:J9">
     <cfRule type="colorScale" priority="14">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1506,9 +1523,9 @@
   <conditionalFormatting sqref="I22">
     <cfRule type="colorScale" priority="13">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1518,9 +1535,9 @@
   <conditionalFormatting sqref="H10">
     <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1530,9 +1547,9 @@
   <conditionalFormatting sqref="H11">
     <cfRule type="colorScale" priority="10">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1542,9 +1559,9 @@
   <conditionalFormatting sqref="H12">
     <cfRule type="colorScale" priority="9">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1554,9 +1571,9 @@
   <conditionalFormatting sqref="K9">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1569,14 +1586,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1584,12 +1601,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
